--- a/outputFile/LODO.xlsx
+++ b/outputFile/LODO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,6 +442,9 @@
       <c r="C1" s="1" t="n">
         <v>0</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -455,6 +458,9 @@
       <c r="C2" t="n">
         <v>19</v>
       </c>
+      <c r="D2" t="n">
+        <v>19</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -468,6 +474,9 @@
       <c r="C3" t="n">
         <v>242</v>
       </c>
+      <c r="D3" t="n">
+        <v>242</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -479,7 +488,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.4230286385476016</v>
+        <v>0.6889082878803159</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.6889082878803159</v>
       </c>
     </row>
   </sheetData>

--- a/outputFile/LODO.xlsx
+++ b/outputFile/LODO.xlsx
@@ -488,10 +488,10 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.6889082878803159</v>
+        <v>0.7129275024011865</v>
       </c>
       <c r="D4" t="n">
-        <v>0.6889082878803159</v>
+        <v>0.7129275024011865</v>
       </c>
     </row>
   </sheetData>

--- a/outputFile/LODO.xlsx
+++ b/outputFile/LODO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,9 +442,6 @@
       <c r="C1" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -458,9 +455,6 @@
       <c r="C2" t="n">
         <v>19</v>
       </c>
-      <c r="D2" t="n">
-        <v>19</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -474,9 +468,6 @@
       <c r="C3" t="n">
         <v>242</v>
       </c>
-      <c r="D3" t="n">
-        <v>242</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -488,9 +479,6 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.7129275024011865</v>
-      </c>
-      <c r="D4" t="n">
         <v>0.7129275024011865</v>
       </c>
     </row>
